--- a/xlstest.xlsx
+++ b/xlstest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e5b7cb262d48c8c/Документы/QAP-85/GIT/gr_public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_AD4DF75460589B3ACB72846A3F1F5E845BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E0B9D7F-96DE-4C2B-95CE-324B7A9055DC}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_AD4DF75460589B3ACB72846A3F1F5E845BDEDD8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5FB4B4CD-A97E-467D-927B-F3055C3D4C19}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -337,10 +337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="D9"/>
+  <dimension ref="D9:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -353,6 +353,11 @@
         <v>7.4510759106456004E+27</v>
       </c>
     </row>
+    <row r="10" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>845687</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
